--- a/XLSX/Rationale Intuition and Rationality.xlsx
+++ b/XLSX/Rationale Intuition and Rationality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20173669\Documents\School\Master\SA Maryam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85018E56-1B4D-4A7C-8F7E-6BFDA8758235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC907952-AD26-4F0C-847B-6E4E66EB1D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15990" xr2:uid="{5F47FB79-410D-4CAD-A9CF-0D331020BF67}"/>
+    <workbookView xWindow="45120" yWindow="2100" windowWidth="24765" windowHeight="21000" xr2:uid="{5F47FB79-410D-4CAD-A9CF-0D331020BF67}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 6 (Intuition Rationality)" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
   <si>
     <t>Classication of Element</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Based on feeling and experience</t>
   </si>
   <si>
-    <t>Experiential</t>
-  </si>
-  <si>
     <t>Naturalistic decision making</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>The reliance on logical and rational thinking to arrive at a decision through argumentation</t>
   </si>
   <si>
-    <t>Controlled, high e_x001B_ort, logical, rule-based</t>
-  </si>
-  <si>
     <t>SE14</t>
   </si>
   <si>
@@ -219,9 +213,6 @@
     <t>Intuition - quick, based on gut feeling</t>
   </si>
   <si>
-    <t>Rapid, experiential</t>
-  </si>
-  <si>
     <t>Rationality - slow, based on justi_x001C_cation through available requirements</t>
   </si>
   <si>
@@ -246,9 +237,6 @@
     <t>Mind 2 (re_x001D_ection) - thinking process that allows one to evaluate, challenge and revise one’s decision, re_x001D_ection on one aspect of a design can spark further re_x001D_ection</t>
   </si>
   <si>
-    <t>Associative, holistic, re_x001D_ective</t>
-  </si>
-  <si>
     <t xml:space="preserve">Naturalistic decision making with rational decision making </t>
   </si>
   <si>
@@ -261,35 +249,44 @@
     <t>Naturalistic decision making - past situations are assessed and matched with the current situation through singular evaluation, in order to come to a su_x001E_cient rather than optimal solution</t>
   </si>
   <si>
-    <t>Associative, experiential, low effort,
+    <t>Rational decision making - aims to select the optimal solution in a systematic manner based on all alternatives and relevant criteria</t>
+  </si>
+  <si>
+    <t>SE22, SE24 SE25</t>
+  </si>
+  <si>
+    <t>The use of di_x001B_erent elements of naturalistic decision making and rational decision making in each decision making process; which combination is used depends on the structure of the problem</t>
+  </si>
+  <si>
+    <t>Naturalistic decision making - type of decision making that emerges in chaotic situations, embodies fast reactions to changes, can cope with ambiguity, relies on situation assessment, resolved by knowledgeable decision makers, and utilizes satis_x001C_cing as opposed to optimizing behaviors</t>
+  </si>
+  <si>
+    <t>Rational decision making - decision making involving the logical application of rules to mathematically compute optimal decision among decision alternatives</t>
+  </si>
+  <si>
+    <t>Not classifiable</t>
+  </si>
+  <si>
+    <t>SE7, SE10, SE16, SE23</t>
+  </si>
+  <si>
+    <t>Associative</t>
+  </si>
+  <si>
+    <t>Rapid, associative</t>
+  </si>
+  <si>
+    <t>Associative, holistic, analytic</t>
+  </si>
+  <si>
+    <t>Associative, low effort,
 pragmatic</t>
   </si>
   <si>
-    <t>Rational decision making - aims to select the optimal solution in a systematic manner based on all alternatives and relevant criteria</t>
-  </si>
-  <si>
-    <t>Controlled, high-e_x001B_ort, rule-based</t>
-  </si>
-  <si>
-    <t>SE22, SE24 SE25</t>
-  </si>
-  <si>
-    <t>The use of di_x001B_erent elements of naturalistic decision making and rational decision making in each decision making process; which combination is used depends on the structure of the problem</t>
-  </si>
-  <si>
-    <t>Naturalistic decision making - type of decision making that emerges in chaotic situations, embodies fast reactions to changes, can cope with ambiguity, relies on situation assessment, resolved by knowledgeable decision makers, and utilizes satis_x001C_cing as opposed to optimizing behaviors</t>
-  </si>
-  <si>
-    <t>Associative, contextualized, experiential, low effort, rapid</t>
-  </si>
-  <si>
-    <t>Rational decision making - decision making involving the logical application of rules to mathematically compute optimal decision among decision alternatives</t>
-  </si>
-  <si>
-    <t>Not classifiable</t>
-  </si>
-  <si>
-    <t>SE7, SE10, SE16, SE23</t>
+    <t>Associative, contextualized, low effort, rapid</t>
+  </si>
+  <si>
+    <t>Controlled, high-effort, rule-based</t>
   </si>
 </sst>
 </file>
@@ -492,17 +489,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,16 +819,16 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="54.140625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" style="26" customWidth="1"/>
+    <col min="1" max="2" width="14.42578125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="54.140625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -887,75 +884,75 @@
         <v>13</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" s="12" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="F7" s="15" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -963,13 +960,13 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -977,13 +974,13 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -991,13 +988,13 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1005,29 +1002,29 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="F12" s="15" t="s">
         <v>42</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1035,13 +1032,13 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1049,46 +1046,46 @@
       <c r="B14" s="7"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="7"/>
       <c r="C15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="F15" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="E16" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="F16" s="11"/>
     </row>
@@ -1098,10 +1095,10 @@
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1110,23 +1107,23 @@
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -1136,10 +1133,10 @@
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1148,23 +1145,23 @@
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="7"/>
       <c r="C22" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F22" s="11"/>
     </row>
@@ -1174,10 +1171,10 @@
       <c r="C23" s="9"/>
       <c r="D23" s="8"/>
       <c r="E23" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1186,10 +1183,10 @@
       <c r="C24" s="9"/>
       <c r="D24" s="8"/>
       <c r="E24" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1197,10 +1194,10 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F25" s="11"/>
     </row>
@@ -1210,10 +1207,10 @@
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
       <c r="E26" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1222,23 +1219,23 @@
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B28" s="23"/>
-      <c r="C28" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25"/>
+      <c r="C28" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
